--- a/DocusignTabPositionJSON.xlsx
+++ b/DocusignTabPositionJSON.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erica/Desktop/Docusign OAuth Workflow/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erica/Desktop/Docusign OAuth Workflow/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24E8B56-EE70-C943-B119-726A5BFA0D23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E739E98-0491-4349-BB64-699118CEB597}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42340" yWindow="4700" windowWidth="17440" windowHeight="14980" activeTab="1" xr2:uid="{ED086C26-70B1-3B45-BEEC-5F2C7D763EDB}"/>
+    <workbookView xWindow="21540" yWindow="2620" windowWidth="17440" windowHeight="14980" xr2:uid="{ED086C26-70B1-3B45-BEEC-5F2C7D763EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Volunteer" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="57">
   <si>
     <t>position</t>
   </si>
@@ -549,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367054DF-4AC2-8744-A6BC-1F1314A8986D}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -701,7 +701,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -709,7 +709,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -717,7 +717,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -725,7 +725,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -733,7 +733,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -741,7 +741,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -749,7 +749,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -757,7 +757,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -765,7 +765,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -773,7 +773,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -781,7 +781,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -789,7 +789,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -797,7 +797,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -805,7 +805,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -813,7 +813,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -821,7 +821,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -829,7 +829,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -837,7 +837,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -845,7 +845,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -853,130 +853,26 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>37</v>
-      </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>38</v>
-      </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>39</v>
-      </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>40</v>
-      </c>
       <c r="B42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
         <v>45</v>
       </c>
     </row>
@@ -989,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19314EA4-79B9-2849-90D2-F4DC57F4EEA4}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A50"/>
     </sheetView>
   </sheetViews>
